--- a/temp_ + Synthetic Anchorage (busy).xlsx
+++ b/temp_ + Synthetic Anchorage (busy).xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Wed Jan 29 13:10:26 2025</t>
+    <t>Sun Feb  9 11:20:09 2025</t>
   </si>
   <si>
-    <t>Wed Jan 29 13:47:52 2025</t>
+    <t>Sun Feb  9 12:12:26 2025</t>
   </si>
 </sst>
 </file>
@@ -359,19 +359,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>842.2428861643598</v>
+        <v>760.6509152776819</v>
       </c>
       <c r="B1">
-        <v>1486.72325962466</v>
+        <v>1473.347037823325</v>
       </c>
       <c r="C1">
-        <v>1703.351528384279</v>
+        <v>1774.664634146342</v>
       </c>
       <c r="D1">
-        <v>0.6922561911506628</v>
+        <v>0.6812865639382187</v>
       </c>
       <c r="E1">
-        <v>0.01890579270778529</v>
+        <v>0.02292999418701073</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/temp_ + Synthetic Anchorage (busy).xlsx
+++ b/temp_ + Synthetic Anchorage (busy).xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Sun Feb  9 11:20:09 2025</t>
-  </si>
-  <si>
-    <t>Sun Feb  9 12:12:26 2025</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -359,27 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>760.6509152776819</v>
+        <v>601.0654688144768</v>
       </c>
       <c r="B1">
-        <v>1473.347037823325</v>
+        <v>1096.215250497774</v>
       </c>
       <c r="C1">
-        <v>1774.664634146342</v>
+        <v>1756.353658536585</v>
       </c>
       <c r="D1">
-        <v>0.6812865639382187</v>
+        <v>0.7073254822854381</v>
       </c>
       <c r="E1">
-        <v>0.02292999418701073</v>
+        <v>0.01856818385620992</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>693.752846801566</v>
+      </c>
+      <c r="B2">
+        <v>1299.820297404655</v>
+      </c>
+      <c r="C2">
+        <v>1851.588957055215</v>
+      </c>
+      <c r="D2">
+        <v>0.7012994115593434</v>
+      </c>
+      <c r="E2">
+        <v>0.01420745092738122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>816.9331253683827</v>
+      </c>
+      <c r="B3">
+        <v>1374.095522220918</v>
+      </c>
+      <c r="C3">
+        <v>1670.947247706422</v>
+      </c>
+      <c r="D3">
+        <v>0.7136714767992702</v>
+      </c>
+      <c r="E3">
+        <v>0.02320173040631085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>690.0287628111198</v>
+      </c>
+      <c r="B4">
+        <v>1221.835314686623</v>
+      </c>
+      <c r="C4">
+        <v>1831.985815602837</v>
+      </c>
+      <c r="D4">
+        <v>0.7195761675449825</v>
+      </c>
+      <c r="E4">
+        <v>0.02093555975501192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>726.9289753981548</v>
+      </c>
+      <c r="B5">
+        <v>1247.361446615063</v>
+      </c>
+      <c r="C5">
+        <v>1935.426877470356</v>
+      </c>
+      <c r="D5">
+        <v>0.6989226393755867</v>
+      </c>
+      <c r="E5">
+        <v>0.02094232848785824</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Synthetic Anchorage (busy).xlsx
+++ b/temp_ + Synthetic Anchorage (busy).xlsx
@@ -348,87 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>601.0654688144768</v>
+        <v>758.184621113957</v>
       </c>
       <c r="B1">
-        <v>1096.215250497774</v>
+        <v>1333.07632167872</v>
       </c>
       <c r="C1">
-        <v>1756.353658536585</v>
+        <v>1844.965442764579</v>
       </c>
       <c r="D1">
-        <v>0.7073254822854381</v>
+        <v>0.6810070399995759</v>
       </c>
       <c r="E1">
-        <v>0.01856818385620992</v>
+        <v>0.01923458098614294</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>693.752846801566</v>
+        <v>716.3398809880573</v>
       </c>
       <c r="B2">
-        <v>1299.820297404655</v>
+        <v>1258.160213992287</v>
       </c>
       <c r="C2">
-        <v>1851.588957055215</v>
+        <v>1999.392857142857</v>
       </c>
       <c r="D2">
-        <v>0.7012994115593434</v>
+        <v>0.6933809349645018</v>
       </c>
       <c r="E2">
-        <v>0.01420745092738122</v>
+        <v>0.02583414842842181</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>816.9331253683827</v>
+        <v>643.5260144401</v>
       </c>
       <c r="B3">
-        <v>1374.095522220918</v>
+        <v>1263.93427528335</v>
       </c>
       <c r="C3">
-        <v>1670.947247706422</v>
+        <v>1861.525</v>
       </c>
       <c r="D3">
-        <v>0.7136714767992702</v>
+        <v>0.7073912862431965</v>
       </c>
       <c r="E3">
-        <v>0.02320173040631085</v>
+        <v>0.01869974042423735</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>690.0287628111198</v>
+        <v>690.2160863700293</v>
       </c>
       <c r="B4">
-        <v>1221.835314686623</v>
+        <v>1250.270144049197</v>
       </c>
       <c r="C4">
-        <v>1831.985815602837</v>
+        <v>1734.927570093458</v>
       </c>
       <c r="D4">
-        <v>0.7195761675449825</v>
+        <v>0.6894560267400814</v>
       </c>
       <c r="E4">
-        <v>0.02093555975501192</v>
+        <v>0.01830676646716703</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>726.9289753981548</v>
+        <v>828.11121098403</v>
       </c>
       <c r="B5">
-        <v>1247.361446615063</v>
+        <v>1336.777298135491</v>
       </c>
       <c r="C5">
-        <v>1935.426877470356</v>
+        <v>1913.58872651357</v>
       </c>
       <c r="D5">
-        <v>0.6989226393755867</v>
+        <v>0.6875776801185272</v>
       </c>
       <c r="E5">
-        <v>0.02094232848785824</v>
+        <v>0.02070381483973422</v>
       </c>
     </row>
   </sheetData>

--- a/temp_ + Synthetic Anchorage (busy).xlsx
+++ b/temp_ + Synthetic Anchorage (busy).xlsx
@@ -348,87 +348,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>758.184621113957</v>
+        <v>810.4471307978642</v>
       </c>
       <c r="B1">
-        <v>1333.07632167872</v>
+        <v>1584.866129465399</v>
       </c>
       <c r="C1">
-        <v>1844.965442764579</v>
+        <v>1650.44776119403</v>
       </c>
       <c r="D1">
-        <v>0.6810070399995759</v>
+        <v>0.6631411008718614</v>
       </c>
       <c r="E1">
-        <v>0.01923458098614294</v>
+        <v>0.02243473837255642</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>716.3398809880573</v>
+        <v>528.2843836086977</v>
       </c>
       <c r="B2">
-        <v>1258.160213992287</v>
+        <v>1070.6978525208</v>
       </c>
       <c r="C2">
-        <v>1999.392857142857</v>
+        <v>1874.632780082988</v>
       </c>
       <c r="D2">
-        <v>0.6933809349645018</v>
+        <v>0.703859541735951</v>
       </c>
       <c r="E2">
-        <v>0.02583414842842181</v>
+        <v>0.02027652918312013</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>643.5260144401</v>
+        <v>918.5234815262925</v>
       </c>
       <c r="B3">
-        <v>1263.93427528335</v>
+        <v>1649.877531522299</v>
       </c>
       <c r="C3">
-        <v>1861.525</v>
+        <v>1931.861607142857</v>
       </c>
       <c r="D3">
-        <v>0.7073912862431965</v>
+        <v>0.7012381882052897</v>
       </c>
       <c r="E3">
-        <v>0.01869974042423735</v>
+        <v>0.02063467856451277</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>690.2160863700293</v>
+        <v>793.1298616237234</v>
       </c>
       <c r="B4">
-        <v>1250.270144049197</v>
+        <v>1334.742587902229</v>
       </c>
       <c r="C4">
-        <v>1734.927570093458</v>
+        <v>1997.581818181818</v>
       </c>
       <c r="D4">
-        <v>0.6894560267400814</v>
+        <v>0.7052528677424835</v>
       </c>
       <c r="E4">
-        <v>0.01830676646716703</v>
+        <v>0.01393103602666239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>828.11121098403</v>
+        <v>565.567557248814</v>
       </c>
       <c r="B5">
-        <v>1336.777298135491</v>
+        <v>1219.906129960471</v>
       </c>
       <c r="C5">
-        <v>1913.58872651357</v>
+        <v>1872.865384615385</v>
       </c>
       <c r="D5">
-        <v>0.6875776801185272</v>
+        <v>0.6993311565886997</v>
       </c>
       <c r="E5">
-        <v>0.02070381483973422</v>
+        <v>0.01872667843276985</v>
       </c>
     </row>
   </sheetData>
